--- a/data/trans_dic/iP30KDA4_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP30KDA4_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>56,73%</t>
+          <t>46,19%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>47,33%</t>
+          <t>56,2%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>51,86%</t>
+          <t>51,13%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>45,52; 68,36</t>
+          <t>35,83; 57,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>37,11; 60,06</t>
+          <t>45,22; 66,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>43,48; 59,71</t>
+          <t>43,39; 59,57</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>53,91%</t>
+          <t>46,37%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>47,61%</t>
+          <t>52,88%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>50,91%</t>
+          <t>49,84%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>47,09; 60,22</t>
+          <t>39,61; 52,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>41,69; 54,47</t>
+          <t>46,18; 58,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>46,27; 55,56</t>
+          <t>45,12; 54,42</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>46,44%</t>
+          <t>49,88%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>50,3%</t>
+          <t>46,01%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>48,24%</t>
+          <t>47,75%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>40,35; 53,32</t>
+          <t>42,92; 56,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>42,91; 57,23</t>
+          <t>39,64; 53,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>43,26; 53,2</t>
+          <t>43,22; 52,53</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>41,68%</t>
+          <t>35,14%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>38,8%</t>
+          <t>41,66%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>40,32%</t>
+          <t>38,58%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>35,89; 47,99</t>
+          <t>25,36; 41,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>32,49; 44,39</t>
+          <t>35,95; 50,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>36,29; 45,03</t>
+          <t>31,67; 43,79</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>46,97%</t>
+          <t>42,57%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>44,76%</t>
+          <t>46,53%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>45,92%</t>
+          <t>44,68%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>43,17; 50,63</t>
+          <t>36,17; 46,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>41,0; 48,13</t>
+          <t>43,21; 50,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>43,59; 48,68</t>
+          <t>41,14; 47,38</t>
         </is>
       </c>
     </row>
